--- a/plots/Ergebnisse_Überblick.xlsx
+++ b/plots/Ergebnisse_Überblick.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\Sound-Event-Detection\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADEA261-428F-444D-B1BF-2C1A2ED49749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCBABF6-CDDC-47F5-AB4E-0BA0CB061214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{2C3619C7-81E7-49C3-8410-F5775DF0AEF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>AdvancedCRNN</t>
   </si>
@@ -177,6 +177,27 @@
   </si>
   <si>
     <t>0.2286</t>
+  </si>
+  <si>
+    <t>Binary Bird Dataset</t>
+  </si>
+  <si>
+    <t>0.4154</t>
+  </si>
+  <si>
+    <t>0.5869</t>
+  </si>
+  <si>
+    <t>0.8834</t>
+  </si>
+  <si>
+    <t>0.8493</t>
+  </si>
+  <si>
+    <t>0.9163</t>
+  </si>
+  <si>
+    <t>0.7915</t>
   </si>
 </sst>
 </file>
@@ -220,10 +241,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D178EF0-4385-470A-802A-049C10FFDC17}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,9 +591,10 @@
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="10" max="10" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -586,8 +607,11 @@
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
@@ -601,7 +625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -623,8 +647,11 @@
       <c r="H3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -643,8 +670,11 @@
       <c r="H4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -663,8 +693,11 @@
       <c r="H5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>14</v>
       </c>
@@ -683,8 +716,11 @@
       <c r="H6" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,8 +742,11 @@
       <c r="H8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -726,8 +765,11 @@
       <c r="H9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -746,8 +788,11 @@
       <c r="H10" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
@@ -763,8 +808,11 @@
       <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" t="s">
         <v>44</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/plots/Ergebnisse_Überblick.xlsx
+++ b/plots/Ergebnisse_Überblick.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\Sound-Event-Detection\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCBABF6-CDDC-47F5-AB4E-0BA0CB061214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93EA55-DCEF-422E-AA26-6844AA413DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{2C3619C7-81E7-49C3-8410-F5775DF0AEF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>AdvancedCRNN</t>
   </si>
@@ -83,30 +83,6 @@
     <t>F1-Score</t>
   </si>
   <si>
-    <t>0.1743</t>
-  </si>
-  <si>
-    <t>0.2968</t>
-  </si>
-  <si>
-    <t>0.1153</t>
-  </si>
-  <si>
-    <t>0.2068</t>
-  </si>
-  <si>
-    <t>0.1547</t>
-  </si>
-  <si>
-    <t>0.2679</t>
-  </si>
-  <si>
-    <t>0.2137</t>
-  </si>
-  <si>
-    <t>0.3522</t>
-  </si>
-  <si>
     <t>0.8827</t>
   </si>
   <si>
@@ -198,6 +174,51 @@
   </si>
   <si>
     <t>0.7915</t>
+  </si>
+  <si>
+    <t>0.8763</t>
+  </si>
+  <si>
+    <t>0.4206</t>
+  </si>
+  <si>
+    <t>0.4573</t>
+  </si>
+  <si>
+    <t>0.3894</t>
+  </si>
+  <si>
+    <t>0.8879</t>
+  </si>
+  <si>
+    <t>0.5833</t>
+  </si>
+  <si>
+    <t>0.6865</t>
+  </si>
+  <si>
+    <t>0.5071</t>
+  </si>
+  <si>
+    <t>0.8622</t>
+  </si>
+  <si>
+    <t>0.5030</t>
+  </si>
+  <si>
+    <t>0.6313</t>
+  </si>
+  <si>
+    <t>0.8011</t>
+  </si>
+  <si>
+    <t>0.5528</t>
+  </si>
+  <si>
+    <t>0.3630</t>
+  </si>
+  <si>
+    <t>0.4382</t>
   </si>
 </sst>
 </file>
@@ -241,9 +262,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,7 +603,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,7 +630,7 @@
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -633,22 +655,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -656,22 +678,22 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
         <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -679,19 +701,19 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J5" t="s">
         <v>2</v>
@@ -701,23 +723,23 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -728,22 +750,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -751,22 +773,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>36</v>
-      </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -774,45 +796,45 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H11" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/plots/Ergebnisse_Überblick.xlsx
+++ b/plots/Ergebnisse_Überblick.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\Sound-Event-Detection\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C93EA55-DCEF-422E-AA26-6844AA413DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC6F96-DD63-42EB-89C5-49D4EC2638AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{2C3619C7-81E7-49C3-8410-F5775DF0AEF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
   <si>
     <t>AdvancedCRNN</t>
   </si>
@@ -44,9 +44,6 @@
     <t>TUT 2017</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>DESED 2022</t>
   </si>
   <si>
@@ -158,12 +155,6 @@
     <t>Binary Bird Dataset</t>
   </si>
   <si>
-    <t>0.4154</t>
-  </si>
-  <si>
-    <t>0.5869</t>
-  </si>
-  <si>
     <t>0.8834</t>
   </si>
   <si>
@@ -219,6 +210,18 @@
   </si>
   <si>
     <t>0.4382</t>
+  </si>
+  <si>
+    <t>0.9310</t>
+  </si>
+  <si>
+    <t>0.9327</t>
+  </si>
+  <si>
+    <t>0.9067</t>
+  </si>
+  <si>
+    <t>0.9195</t>
   </si>
 </sst>
 </file>
@@ -603,7 +606,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,128 +621,128 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
         <v>54</v>
       </c>
-      <c r="F3" t="s">
-        <v>57</v>
-      </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" t="s">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -747,94 +750,94 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/plots/Ergebnisse_Überblick.xlsx
+++ b/plots/Ergebnisse_Überblick.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\Sound-Event-Detection\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC6F96-DD63-42EB-89C5-49D4EC2638AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D18511-A4EA-440D-A98C-B624C3E3711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{2C3619C7-81E7-49C3-8410-F5775DF0AEF0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
   <si>
     <t>AdvancedCRNN</t>
   </si>
@@ -222,6 +222,48 @@
   </si>
   <si>
     <t>0.9195</t>
+  </si>
+  <si>
+    <t>BirdSED</t>
+  </si>
+  <si>
+    <t>BirdSED (Top Ten)</t>
+  </si>
+  <si>
+    <t>Simpler BirdSED</t>
+  </si>
+  <si>
+    <t>0.9321</t>
+  </si>
+  <si>
+    <t>0.0095</t>
+  </si>
+  <si>
+    <t>0.0992</t>
+  </si>
+  <si>
+    <t>0.0174</t>
+  </si>
+  <si>
+    <t>0.9660</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.9421</t>
+  </si>
+  <si>
+    <t>0.0034</t>
+  </si>
+  <si>
+    <t>0.0041</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t>0.9938</t>
   </si>
 </sst>
 </file>
@@ -265,10 +307,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D178EF0-4385-470A-802A-049C10FFDC17}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,9 +658,11 @@
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="10" max="10" width="18" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -635,8 +678,17 @@
       <c r="J1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
@@ -650,7 +702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,8 +727,14 @@
       <c r="J3" t="s">
         <v>58</v>
       </c>
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -698,8 +756,14 @@
       <c r="J4" t="s">
         <v>59</v>
       </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -721,8 +785,14 @@
       <c r="J5" t="s">
         <v>60</v>
       </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>13</v>
       </c>
@@ -744,8 +814,14 @@
       <c r="J6" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,8 +846,14 @@
       <c r="J8" t="s">
         <v>39</v>
       </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -793,8 +875,14 @@
       <c r="J9" t="s">
         <v>41</v>
       </c>
+      <c r="L9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -816,8 +904,14 @@
       <c r="J10" t="s">
         <v>42</v>
       </c>
+      <c r="L10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N10" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>13</v>
       </c>
@@ -836,8 +930,14 @@
       <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>40</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="N11" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/plots/Ergebnisse_Überblick.xlsx
+++ b/plots/Ergebnisse_Überblick.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\Sound-Event-Detection\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D18511-A4EA-440D-A98C-B624C3E3711E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870DEA95-1081-41C6-89E0-172BF1AE9F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{2C3619C7-81E7-49C3-8410-F5775DF0AEF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2C3619C7-81E7-49C3-8410-F5775DF0AEF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
-  <si>
-    <t>AdvancedCRNN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
   <si>
     <t>TUT 2017</t>
   </si>
@@ -264,6 +261,12 @@
   </si>
   <si>
     <t>0.9938</t>
+  </si>
+  <si>
+    <t>Shake-CRNN</t>
+  </si>
+  <si>
+    <t>Shake-Transformer</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D178EF0-4385-470A-802A-049C10FFDC17}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,280 +667,303 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/plots/Ergebnisse_Überblick.xlsx
+++ b/plots/Ergebnisse_Überblick.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Willi\Desktop\Sound-Event-Detection\plots\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870DEA95-1081-41C6-89E0-172BF1AE9F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100D7F1A-3D62-415F-A08E-A44FCADF3A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2C3619C7-81E7-49C3-8410-F5775DF0AEF0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15750" xr2:uid="{2C3619C7-81E7-49C3-8410-F5775DF0AEF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>TUT 2017</t>
   </si>
@@ -77,54 +77,6 @@
     <t>F1-Score</t>
   </si>
   <si>
-    <t>0.8827</t>
-  </si>
-  <si>
-    <t>0.4115</t>
-  </si>
-  <si>
-    <t>0.4882</t>
-  </si>
-  <si>
-    <t>0.3556</t>
-  </si>
-  <si>
-    <t>0.8854</t>
-  </si>
-  <si>
-    <t>0.5045</t>
-  </si>
-  <si>
-    <t>0.3383</t>
-  </si>
-  <si>
-    <t>0.4050</t>
-  </si>
-  <si>
-    <t>0.8858</t>
-  </si>
-  <si>
-    <t>0.5074</t>
-  </si>
-  <si>
-    <t>0.3426</t>
-  </si>
-  <si>
-    <t>0.4090</t>
-  </si>
-  <si>
-    <t>0.8822</t>
-  </si>
-  <si>
-    <t>0.4846</t>
-  </si>
-  <si>
-    <t>0.3404</t>
-  </si>
-  <si>
-    <t>0.3999</t>
-  </si>
-  <si>
     <t>0.9442</t>
   </si>
   <si>
@@ -137,99 +89,12 @@
     <t>0.7190</t>
   </si>
   <si>
-    <t>0.8632</t>
-  </si>
-  <si>
-    <t>0.2738</t>
-  </si>
-  <si>
-    <t>0.3413</t>
-  </si>
-  <si>
-    <t>0.2286</t>
-  </si>
-  <si>
     <t>Binary Bird Dataset</t>
   </si>
   <si>
-    <t>0.8834</t>
-  </si>
-  <si>
-    <t>0.8493</t>
-  </si>
-  <si>
-    <t>0.9163</t>
-  </si>
-  <si>
-    <t>0.7915</t>
-  </si>
-  <si>
-    <t>0.8763</t>
-  </si>
-  <si>
-    <t>0.4206</t>
-  </si>
-  <si>
-    <t>0.4573</t>
-  </si>
-  <si>
-    <t>0.3894</t>
-  </si>
-  <si>
-    <t>0.8879</t>
-  </si>
-  <si>
-    <t>0.5833</t>
-  </si>
-  <si>
-    <t>0.6865</t>
-  </si>
-  <si>
-    <t>0.5071</t>
-  </si>
-  <si>
-    <t>0.8622</t>
-  </si>
-  <si>
-    <t>0.5030</t>
-  </si>
-  <si>
-    <t>0.6313</t>
-  </si>
-  <si>
-    <t>0.8011</t>
-  </si>
-  <si>
-    <t>0.5528</t>
-  </si>
-  <si>
-    <t>0.3630</t>
-  </si>
-  <si>
-    <t>0.4382</t>
-  </si>
-  <si>
-    <t>0.9310</t>
-  </si>
-  <si>
-    <t>0.9327</t>
-  </si>
-  <si>
-    <t>0.9067</t>
-  </si>
-  <si>
-    <t>0.9195</t>
-  </si>
-  <si>
     <t>BirdSED</t>
   </si>
   <si>
-    <t>BirdSED (Top Ten)</t>
-  </si>
-  <si>
-    <t>Simpler BirdSED</t>
-  </si>
-  <si>
     <t>0.9321</t>
   </si>
   <si>
@@ -242,24 +107,9 @@
     <t>0.0174</t>
   </si>
   <si>
-    <t>0.9660</t>
-  </si>
-  <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.9421</t>
-  </si>
-  <si>
-    <t>0.0034</t>
-  </si>
-  <si>
-    <t>0.0041</t>
-  </si>
-  <si>
-    <t>0.0029</t>
-  </si>
-  <si>
     <t>0.9938</t>
   </si>
   <si>
@@ -267,6 +117,186 @@
   </si>
   <si>
     <t>Shake-Transformer</t>
+  </si>
+  <si>
+    <t>0.8082</t>
+  </si>
+  <si>
+    <t>0.4500</t>
+  </si>
+  <si>
+    <t>0.2965</t>
+  </si>
+  <si>
+    <t>0.9323</t>
+  </si>
+  <si>
+    <t>0.8902</t>
+  </si>
+  <si>
+    <t>0.5192</t>
+  </si>
+  <si>
+    <t>0.6443</t>
+  </si>
+  <si>
+    <t>0.5751</t>
+  </si>
+  <si>
+    <t>0.8874</t>
+  </si>
+  <si>
+    <t>0.6001</t>
+  </si>
+  <si>
+    <t>0.8152</t>
+  </si>
+  <si>
+    <t>0.6913</t>
+  </si>
+  <si>
+    <t>0.7270</t>
+  </si>
+  <si>
+    <t>0.3519</t>
+  </si>
+  <si>
+    <t>0.6732</t>
+  </si>
+  <si>
+    <t>0.4622</t>
+  </si>
+  <si>
+    <t>0.8503</t>
+  </si>
+  <si>
+    <t>0.6219</t>
+  </si>
+  <si>
+    <t>0.7632</t>
+  </si>
+  <si>
+    <t>0.6854</t>
+  </si>
+  <si>
+    <t>0.8897</t>
+  </si>
+  <si>
+    <t>0.5291</t>
+  </si>
+  <si>
+    <t>0.3976</t>
+  </si>
+  <si>
+    <t>0.4540</t>
+  </si>
+  <si>
+    <t>0.8926</t>
+  </si>
+  <si>
+    <t>0.7044</t>
+  </si>
+  <si>
+    <t>0.5265</t>
+  </si>
+  <si>
+    <t>0.6026</t>
+  </si>
+  <si>
+    <t>0.8627</t>
+  </si>
+  <si>
+    <t>0.6213</t>
+  </si>
+  <si>
+    <t>0.5432</t>
+  </si>
+  <si>
+    <t>0.5796</t>
+  </si>
+  <si>
+    <t>0.8087</t>
+  </si>
+  <si>
+    <t>0.5953</t>
+  </si>
+  <si>
+    <t>0.3279</t>
+  </si>
+  <si>
+    <t>0.4228</t>
+  </si>
+  <si>
+    <t>0.9189</t>
+  </si>
+  <si>
+    <t>0.5336</t>
+  </si>
+  <si>
+    <t>0.2857</t>
+  </si>
+  <si>
+    <t>0.3721</t>
+  </si>
+  <si>
+    <t>semisupervised</t>
+  </si>
+  <si>
+    <t>0.8831</t>
+  </si>
+  <si>
+    <t>0.4953</t>
+  </si>
+  <si>
+    <t>0.7121</t>
+  </si>
+  <si>
+    <t>0.5842</t>
+  </si>
+  <si>
+    <t>0.8936</t>
+  </si>
+  <si>
+    <t>0.6263</t>
+  </si>
+  <si>
+    <t>0.7741</t>
+  </si>
+  <si>
+    <t>0.6924</t>
+  </si>
+  <si>
+    <t>0.8736</t>
+  </si>
+  <si>
+    <t>0.6253</t>
+  </si>
+  <si>
+    <t>0.6542</t>
+  </si>
+  <si>
+    <t>0.8247</t>
+  </si>
+  <si>
+    <t>0.5701</t>
+  </si>
+  <si>
+    <t>0.7317</t>
+  </si>
+  <si>
+    <t>0.6408</t>
+  </si>
+  <si>
+    <t>0.9332</t>
+  </si>
+  <si>
+    <t>0.5717</t>
+  </si>
+  <si>
+    <t>0.8217</t>
+  </si>
+  <si>
+    <t>0.6743</t>
   </si>
 </sst>
 </file>
@@ -290,12 +320,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -310,9 +346,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -649,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D178EF0-4385-470A-802A-049C10FFDC17}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,17 +718,13 @@
         <v>1</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
@@ -704,6 +739,9 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -712,258 +750,283 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>57</v>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" t="s">
+        <v>13</v>
       </c>
       <c r="L3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="C4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>58</v>
+      <c r="E4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N4" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>59</v>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N5" t="s">
-        <v>73</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>60</v>
+      <c r="C6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="L6" t="s">
-        <v>69</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N6" s="1"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>38</v>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="L8" t="s">
-        <v>64</v>
-      </c>
-      <c r="N8" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>40</v>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="L9" t="s">
-        <v>65</v>
-      </c>
-      <c r="N9" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
+      <c r="C10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="L10" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="N11" t="s">
-        <v>69</v>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
